--- a/资源/员工导入模板.xlsx
+++ b/资源/员工导入模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaoly\Desktop\note\资源\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCBD490-6F35-4F3F-83DB-EA97AD870961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F626CB9C-D5DF-47C3-A96A-C6163B0BD399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3276" yWindow="3048" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,15 +47,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高大山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高小山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高老山</t>
+    <t>高小明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -417,53 +409,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>13041139879</v>
+        <v>13912345699</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>43535</v>
+        <v>43534</v>
       </c>
       <c r="D2" s="1">
-        <v>43719</v>
+        <v>43718</v>
       </c>
       <c r="E2">
-        <v>20089</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>13041130789</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>43535</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43719</v>
-      </c>
-      <c r="E3">
-        <v>20099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>13041119799</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>43535</v>
-      </c>
-      <c r="D4" s="1">
-        <v>43719</v>
-      </c>
-      <c r="E4">
-        <v>20189</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
